--- a/HW3/Exer5-6 - Jill.xlsx
+++ b/HW3/Exer5-6 - Jill.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D571DA4-62EC-2B48-B5F7-F8FE56B87F6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58922CBB-72C1-6E46-87DB-AAE110FCBBB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="25360" windowHeight="14500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Best Items - a" sheetId="2" r:id="rId1"/>
@@ -147,7 +147,7 @@
     <definedName name="solver_tim" localSheetId="0" hidden="1">999999999</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">999999999</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">999999999</definedName>
-    <definedName name="solver_tol" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0</definedName>
@@ -1433,7 +1433,7 @@
         <v>97</v>
       </c>
       <c r="E4">
-        <f>D4/C4</f>
+        <f t="shared" ref="E4:E43" si="0">D4/C4</f>
         <v>48.5</v>
       </c>
       <c r="F4" s="1">
@@ -1464,7 +1464,7 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <f>D5/C5</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F5" s="1">
@@ -1492,7 +1492,7 @@
         <v>47</v>
       </c>
       <c r="E6">
-        <f>D6/C6</f>
+        <f t="shared" si="0"/>
         <v>5.2222222222222223</v>
       </c>
       <c r="F6" s="1">
@@ -1513,7 +1513,7 @@
         <v>52</v>
       </c>
       <c r="E7">
-        <f>D7/C7</f>
+        <f t="shared" si="0"/>
         <v>4.7272727272727275</v>
       </c>
       <c r="F7" s="1">
@@ -1534,7 +1534,7 @@
         <v>49</v>
       </c>
       <c r="E8">
-        <f>D8/C8</f>
+        <f t="shared" si="0"/>
         <v>4.083333333333333</v>
       </c>
       <c r="F8" s="1">
@@ -1555,7 +1555,7 @@
         <v>54</v>
       </c>
       <c r="E9">
-        <f>D9/C9</f>
+        <f t="shared" si="0"/>
         <v>3.375</v>
       </c>
       <c r="F9" s="1">
@@ -1576,7 +1576,7 @@
         <v>80</v>
       </c>
       <c r="E10">
-        <f>D10/C10</f>
+        <f t="shared" si="0"/>
         <v>2.9629629629629628</v>
       </c>
       <c r="F10" s="1">
@@ -1597,7 +1597,7 @@
         <v>99</v>
       </c>
       <c r="E11">
-        <f>D11/C11</f>
+        <f t="shared" si="0"/>
         <v>2.6052631578947367</v>
       </c>
       <c r="F11" s="1">
@@ -1618,7 +1618,7 @@
         <v>49</v>
       </c>
       <c r="E12">
-        <f>D12/C12</f>
+        <f t="shared" si="0"/>
         <v>2.4500000000000002</v>
       </c>
       <c r="F12" s="1">
@@ -1639,7 +1639,7 @@
         <v>73</v>
       </c>
       <c r="E13">
-        <f>D13/C13</f>
+        <f t="shared" si="0"/>
         <v>2.3548387096774195</v>
       </c>
       <c r="F13" s="1">
@@ -1660,7 +1660,7 @@
         <v>53</v>
       </c>
       <c r="E14">
-        <f>D14/C14</f>
+        <f t="shared" si="0"/>
         <v>2.12</v>
       </c>
       <c r="F14" s="1">
@@ -1681,7 +1681,7 @@
         <v>61</v>
       </c>
       <c r="E15">
-        <f>D15/C15</f>
+        <f t="shared" si="0"/>
         <v>2.103448275862069</v>
       </c>
       <c r="F15" s="1">
@@ -1702,7 +1702,7 @@
         <v>97</v>
       </c>
       <c r="E16">
-        <f>D16/C16</f>
+        <f t="shared" si="0"/>
         <v>1.564516129032258</v>
       </c>
       <c r="F16" s="1">
@@ -1723,7 +1723,7 @@
         <v>52</v>
       </c>
       <c r="E17">
-        <f>D17/C17</f>
+        <f t="shared" si="0"/>
         <v>1.4857142857142858</v>
       </c>
       <c r="F17" s="1">
@@ -1744,7 +1744,7 @@
         <v>87</v>
       </c>
       <c r="E18">
-        <f>D18/C18</f>
+        <f t="shared" si="0"/>
         <v>1.4745762711864407</v>
       </c>
       <c r="F18" s="1">
@@ -1765,7 +1765,7 @@
         <v>86</v>
       </c>
       <c r="E19">
-        <f>D19/C19</f>
+        <f t="shared" si="0"/>
         <v>1.323076923076923</v>
       </c>
       <c r="F19" s="1">
@@ -1786,7 +1786,7 @@
         <v>97</v>
       </c>
       <c r="E20">
-        <f>D20/C20</f>
+        <f t="shared" si="0"/>
         <v>1.3108108108108107</v>
       </c>
       <c r="F20" s="1">
@@ -1807,7 +1807,7 @@
         <v>37</v>
       </c>
       <c r="E21">
-        <f>D21/C21</f>
+        <f t="shared" si="0"/>
         <v>1.2758620689655173</v>
       </c>
       <c r="F21" s="1">
@@ -1828,7 +1828,7 @@
         <v>96</v>
       </c>
       <c r="E22">
-        <f>D22/C22</f>
+        <f t="shared" si="0"/>
         <v>1.103448275862069</v>
       </c>
       <c r="F22" s="1">
@@ -1849,7 +1849,7 @@
         <v>56</v>
       </c>
       <c r="E23">
-        <f>D23/C23</f>
+        <f t="shared" si="0"/>
         <v>1.0980392156862746</v>
       </c>
       <c r="F23" s="1">
@@ -1870,7 +1870,7 @@
         <v>98</v>
       </c>
       <c r="E24">
-        <f>D24/C24</f>
+        <f t="shared" si="0"/>
         <v>1.0888888888888888</v>
       </c>
       <c r="F24" s="1">
@@ -1891,7 +1891,7 @@
         <v>84</v>
       </c>
       <c r="E25">
-        <f>D25/C25</f>
+        <f t="shared" si="0"/>
         <v>1.0769230769230769</v>
       </c>
       <c r="F25" s="1">
@@ -1912,7 +1912,7 @@
         <v>28</v>
       </c>
       <c r="E26">
-        <f>D26/C26</f>
+        <f t="shared" si="0"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="F26" s="1">
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <f>D27/C27</f>
+        <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="F27" s="1">
@@ -1954,7 +1954,7 @@
         <v>37</v>
       </c>
       <c r="E28">
-        <f>D28/C28</f>
+        <f t="shared" si="0"/>
         <v>0.80434782608695654</v>
       </c>
       <c r="F28" s="1">
@@ -1975,7 +1975,7 @@
         <v>67</v>
       </c>
       <c r="E29">
-        <f>D29/C29</f>
+        <f t="shared" si="0"/>
         <v>0.68367346938775508</v>
       </c>
       <c r="F29" s="1">
@@ -1996,7 +1996,7 @@
         <v>16</v>
       </c>
       <c r="E30">
-        <f>D30/C30</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F30" s="1">
@@ -2017,7 +2017,7 @@
         <v>43</v>
       </c>
       <c r="E31">
-        <f>D31/C31</f>
+        <f t="shared" si="0"/>
         <v>0.60563380281690138</v>
       </c>
       <c r="F31" s="1">
@@ -2038,7 +2038,7 @@
         <v>47</v>
       </c>
       <c r="E32">
-        <f>D32/C32</f>
+        <f t="shared" si="0"/>
         <v>0.5280898876404494</v>
       </c>
       <c r="F32" s="1">
@@ -2059,7 +2059,7 @@
         <v>24</v>
       </c>
       <c r="E33">
-        <f>D33/C33</f>
+        <f t="shared" si="0"/>
         <v>0.48979591836734693</v>
       </c>
       <c r="F33" s="1">
@@ -2080,7 +2080,7 @@
         <v>30</v>
       </c>
       <c r="E34">
-        <f>D34/C34</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F34" s="1">
@@ -2101,7 +2101,7 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <f>D35/C35</f>
+        <f t="shared" si="0"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="F35" s="1">
@@ -2122,7 +2122,7 @@
         <v>17</v>
       </c>
       <c r="E36">
-        <f>D36/C36</f>
+        <f t="shared" si="0"/>
         <v>0.20987654320987653</v>
       </c>
       <c r="F36" s="1">
@@ -2143,7 +2143,7 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <f>D37/C37</f>
+        <f t="shared" si="0"/>
         <v>0.1702127659574468</v>
       </c>
       <c r="F37" s="1">
@@ -2164,7 +2164,7 @@
         <v>16</v>
       </c>
       <c r="E38">
-        <f>D38/C38</f>
+        <f t="shared" si="0"/>
         <v>0.1702127659574468</v>
       </c>
       <c r="F38" s="1">
@@ -2185,7 +2185,7 @@
         <v>12</v>
       </c>
       <c r="E39">
-        <f>D39/C39</f>
+        <f t="shared" si="0"/>
         <v>0.14117647058823529</v>
       </c>
       <c r="F39" s="1">
@@ -2206,7 +2206,7 @@
         <v>8</v>
       </c>
       <c r="E40">
-        <f>D40/C40</f>
+        <f t="shared" si="0"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="F40" s="1">
@@ -2227,7 +2227,7 @@
         <v>10</v>
       </c>
       <c r="E41">
-        <f>D41/C41</f>
+        <f t="shared" si="0"/>
         <v>0.10416666666666667</v>
       </c>
       <c r="F41" s="1">
@@ -2248,7 +2248,7 @@
         <v>6</v>
       </c>
       <c r="E42">
-        <f>D42/C42</f>
+        <f t="shared" si="0"/>
         <v>6.3829787234042548E-2</v>
       </c>
       <c r="F42" s="1">
@@ -2269,7 +2269,7 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <f>D43/C43</f>
+        <f t="shared" si="0"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="F43" s="1">
@@ -3034,7 +3034,7 @@
   <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3176,7 +3176,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="3">
         <v>1</v>
@@ -3250,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="3">
         <v>0</v>
@@ -3324,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="3">
         <v>1</v>
@@ -3398,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="3">
         <v>1</v>
@@ -3472,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="3">
         <v>1</v>
@@ -3546,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="3">
         <v>1</v>
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="3">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="3"/>
     </row>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="S13" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" si="0"/>
@@ -3893,11 +3893,11 @@
       </c>
       <c r="V13" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W13" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X13" s="3">
         <f t="shared" si="0"/>

--- a/HW3/Exer5-6 - Jill.xlsx
+++ b/HW3/Exer5-6 - Jill.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58922CBB-72C1-6E46-87DB-AAE110FCBBB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A1D825-70EB-7445-9597-CBB3C4EADFB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Best Items - a" sheetId="2" r:id="rId1"/>
     <sheet name="Best Items - b" sheetId="7" r:id="rId2"/>
     <sheet name="Best Items - c" sheetId="8" r:id="rId3"/>
-    <sheet name="Ambulances" sheetId="6" r:id="rId4"/>
+    <sheet name="Ambulance" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="OpenSolver_ChosenSolver" localSheetId="0" hidden="1">CBC</definedName>
@@ -26,7 +26,7 @@
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="0" hidden="1">TRUE</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="1" hidden="1">TRUE</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="2" hidden="1">TRUE</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">Ambulances!$C$18:$C$27</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Ambulance!$C$18:$C$27</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Best Items - a'!$E$3:$E$42</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Best Items - b'!$F$4:$F$43</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'Best Items - c'!$E$4:$E$43</definedName>
@@ -49,15 +49,16 @@
     <definedName name="solver_itr" localSheetId="0" hidden="1">999999999</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">999999999</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">999999999</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Ambulances!$C$18:$C$27</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Ambulance!$C$18:$C$27</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Best Items - a'!$E$3:$E$42</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Best Items - b'!$F$4:$F$43</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Best Items - c'!$E$4:$E$43</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Ambulances!$C$18:$C$27</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Best Items - a'!$I$3</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Ambulance!$C$18:$C$27</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Best Items - a'!$E$3:$E$42</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Best Items - b'!$J$4</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Best Items - c'!$I$4</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Ambulances!$O$13:$X$13</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Ambulance!$O$13:$X$13</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Best Items - a'!$I$3</definedName>
     <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
@@ -87,13 +88,13 @@
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">Ambulances!$K$18</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Ambulance!$K$18</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Best Items - a'!$I$4</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Best Items - b'!$J$5</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Best Items - c'!$I$5</definedName>
@@ -109,20 +110,22 @@
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">Ambulance!$D$18:$D$27</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Best Items - a'!$F$3:$F$42</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Best Items - b'!$G$4:$G$43</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Best Items - c'!$F$4:$F$43</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Best Items - a'!$J$3</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">integer</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">integer</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Best Items - b'!$K$4</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Best Items - c'!$J$4</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">Ambulance!$O$14:$X$14</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Best Items - a'!$J$3</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
@@ -131,7 +134,7 @@
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
@@ -176,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>Item</t>
   </si>
@@ -205,19 +208,16 @@
     <t>Compute value of item per size and sort it from largest to smallest untill the size reaches the threshold of 500.</t>
   </si>
   <si>
-    <t>Relaxing integer constraints doesn't change the solution.</t>
+    <t>Times being Covered</t>
   </si>
   <si>
-    <t>Total Number of Cars</t>
+    <t>Min</t>
   </si>
   <si>
     <t>Cars</t>
   </si>
   <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Times being Covered</t>
+    <t>Total Number of Cars</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
   <dimension ref="B2:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -695,7 +695,7 @@
       </c>
       <c r="I3">
         <f>SUMPRODUCT(C3:C42,E3:E42)</f>
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J3">
         <v>500</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="I4" s="2">
         <f>SUMPRODUCT(D3:D42,E3:E42)</f>
-        <v>1136.0270270270271</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
@@ -940,7 +940,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1212,7 +1212,7 @@
         <v>97</v>
       </c>
       <c r="E33" s="1">
-        <v>0.78378378378378377</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>86</v>
       </c>
       <c r="E36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1314,7 +1314,7 @@
         <v>37</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1384,7 +1384,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="J4">
         <f>SUMPRODUCT(C4:C43,F4:F43)</f>
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="K4">
         <v>500</v>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="J5" s="2">
         <f>SUMPRODUCT(D4:D43,F4:F43)</f>
-        <v>1136.0270270270271</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1790,7 +1790,7 @@
         <v>1.3108108108108107</v>
       </c>
       <c r="F20" s="1">
-        <v>0.78378378378378377</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>1.0980392156862746</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2289,7 +2289,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555CDF74-2682-1E4E-BF54-EBE0FBB3E983}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="B3:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2305,12 +2305,7 @@
     <col min="8" max="8" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -2327,7 +2322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -2354,7 +2349,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -2378,7 +2373,7 @@
         <v>1136.0270270270271</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -2395,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -2412,7 +2407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -2429,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
@@ -2446,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
@@ -2463,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
@@ -2480,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>9</v>
       </c>
@@ -2497,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10</v>
       </c>
@@ -2514,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>11</v>
       </c>
@@ -2531,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>12</v>
       </c>
@@ -2548,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>13</v>
       </c>
@@ -3030,11 +3025,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0977AC7-52A9-6043-8982-F52284B858C6}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3860,7 +3855,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3">
@@ -3869,11 +3864,11 @@
       </c>
       <c r="P13" s="3">
         <f t="shared" ref="P13:X13" si="0">SUMPRODUCT($C$18:$C$27,P3:P12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" s="3">
         <f t="shared" si="0"/>
@@ -3885,19 +3880,19 @@
       </c>
       <c r="T13" s="3">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W13" s="3">
+        <f t="shared" si="0"/>
         <v>2</v>
-      </c>
-      <c r="U13" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V13" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="W13" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
       </c>
       <c r="X13" s="3">
         <f t="shared" si="0"/>
@@ -3920,7 +3915,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O14" s="3">
         <v>1</v>
@@ -4024,7 +4019,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -4116,7 +4111,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -4182,7 +4177,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -4281,7 +4276,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -4347,7 +4342,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
